--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,51 +534,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.349434</v>
+        <v>0.113818</v>
       </c>
       <c r="H2">
-        <v>1.048302</v>
+        <v>0.341454</v>
       </c>
       <c r="I2">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="J2">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05475333333333333</v>
+        <v>0.003092666666666667</v>
       </c>
       <c r="N2">
-        <v>0.16426</v>
+        <v>0.009278</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03934390080485799</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03934390080485798</v>
       </c>
       <c r="Q2">
-        <v>0.01913267628</v>
+        <v>0.0003520011346666667</v>
       </c>
       <c r="R2">
-        <v>0.17219408652</v>
+        <v>0.003168010212</v>
       </c>
       <c r="S2">
-        <v>0.0009963999680650763</v>
+        <v>1.270878940984263E-05</v>
       </c>
       <c r="T2">
-        <v>0.0009963999680650763</v>
+        <v>1.270878940984263E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>348.977468</v>
+        <v>0.113818</v>
       </c>
       <c r="H3">
-        <v>1046.932404</v>
+        <v>0.341454</v>
       </c>
       <c r="I3">
-        <v>0.9950981815468188</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="J3">
-        <v>0.9950981815468188</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,33 +614,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.05475333333333333</v>
+        <v>0.07551333333333334</v>
       </c>
       <c r="N3">
-        <v>0.16426</v>
+        <v>0.22654</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9606560991951421</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9606560991951419</v>
       </c>
       <c r="Q3">
-        <v>19.10767963122666</v>
+        <v>0.008594776573333332</v>
       </c>
       <c r="R3">
-        <v>171.96911668104</v>
+        <v>0.07735298916</v>
       </c>
       <c r="S3">
-        <v>0.9950981815468188</v>
+        <v>0.0003103092426067847</v>
       </c>
       <c r="T3">
-        <v>0.9950981815468188</v>
+        <v>0.0003103092426067847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,232 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.369616666666667</v>
+        <v>348.977468</v>
       </c>
       <c r="H4">
-        <v>4.10885</v>
+        <v>1046.932404</v>
       </c>
       <c r="I4">
-        <v>0.00390541848511611</v>
+        <v>0.9904058666599795</v>
       </c>
       <c r="J4">
-        <v>0.00390541848511611</v>
+        <v>0.9904058666599794</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.003092666666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.009278</v>
+      </c>
+      <c r="O4">
+        <v>0.03934390080485799</v>
+      </c>
+      <c r="P4">
+        <v>0.03934390080485798</v>
+      </c>
+      <c r="Q4">
+        <v>1.079270982701333</v>
+      </c>
+      <c r="R4">
+        <v>9.713438844311998</v>
+      </c>
+      <c r="S4">
+        <v>0.03896643017441964</v>
+      </c>
+      <c r="T4">
+        <v>0.03896643017441963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>348.977468</v>
+      </c>
+      <c r="H5">
+        <v>1046.932404</v>
+      </c>
+      <c r="I5">
+        <v>0.9904058666599795</v>
+      </c>
+      <c r="J5">
+        <v>0.9904058666599794</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M4">
-        <v>0.05475333333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.16426</v>
-      </c>
-      <c r="O4">
+      <c r="M5">
+        <v>0.07551333333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.22654</v>
+      </c>
+      <c r="O5">
+        <v>0.9606560991951421</v>
+      </c>
+      <c r="P5">
+        <v>0.9606560991951419</v>
+      </c>
+      <c r="Q5">
+        <v>26.35245186690667</v>
+      </c>
+      <c r="R5">
+        <v>237.17206680216</v>
+      </c>
+      <c r="S5">
+        <v>0.95143943648556</v>
+      </c>
+      <c r="T5">
+        <v>0.9514394364855597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="G6">
+        <v>3.266752</v>
+      </c>
+      <c r="H6">
+        <v>9.800255999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.009271115308003845</v>
+      </c>
+      <c r="J6">
+        <v>0.009271115308003843</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>0.07499107788888888</v>
-      </c>
-      <c r="R4">
-        <v>0.674919701</v>
-      </c>
-      <c r="S4">
-        <v>0.00390541848511611</v>
-      </c>
-      <c r="T4">
-        <v>0.00390541848511611</v>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.003092666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.009278</v>
+      </c>
+      <c r="O6">
+        <v>0.03934390080485799</v>
+      </c>
+      <c r="P6">
+        <v>0.03934390080485798</v>
+      </c>
+      <c r="Q6">
+        <v>0.01010297501866667</v>
+      </c>
+      <c r="R6">
+        <v>0.09092677516799999</v>
+      </c>
+      <c r="S6">
+        <v>0.0003647618410285037</v>
+      </c>
+      <c r="T6">
+        <v>0.0003647618410285035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.266752</v>
+      </c>
+      <c r="H7">
+        <v>9.800255999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.009271115308003845</v>
+      </c>
+      <c r="J7">
+        <v>0.009271115308003843</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.07551333333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.22654</v>
+      </c>
+      <c r="O7">
+        <v>0.9606560991951421</v>
+      </c>
+      <c r="P7">
+        <v>0.9606560991951419</v>
+      </c>
+      <c r="Q7">
+        <v>0.2466833326933333</v>
+      </c>
+      <c r="R7">
+        <v>2.22014999424</v>
+      </c>
+      <c r="S7">
+        <v>0.008906353466975341</v>
+      </c>
+      <c r="T7">
+        <v>0.008906353466975339</v>
       </c>
     </row>
   </sheetData>
